--- a/CBACodilityTask3API/src/test/java/webData/webData.xlsx
+++ b/CBACodilityTask3API/src/test/java/webData/webData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\CBACodilityTask3API\src\test\java\webData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\CBA\CBACodilityTask3\CBACodilityTask3API\src\test\java\webData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD09158-AE82-4989-86C6-278ACA14206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941C8496-A447-42A8-8568-CAB061050529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -374,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC465357-6F60-4D18-A5E6-83FAE4BB58E6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
